--- a/Data/EC/NIT-9015472597.xlsx
+++ b/Data/EC/NIT-9015472597.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D33CD1F-BF51-4817-B163-516640C0FAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D322248-BCEC-4AA7-B526-46F5F6A25311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0A739421-654A-4A82-8082-58094DBCCA70}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{75ECCB09-46C4-4C91-82C5-8BA907851469}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="55">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,97 +71,103 @@
     <t>LUIS ENRIQUE PUELLO MOLINARES</t>
   </si>
   <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
     <t>2305</t>
   </si>
   <si>
+    <t>73231259</t>
+  </si>
+  <si>
+    <t>MILTON JOSE VILORA SALGADO</t>
+  </si>
+  <si>
+    <t>19236419</t>
+  </si>
+  <si>
+    <t>JOSE MARRUGO PAJARO</t>
+  </si>
+  <si>
+    <t>4028302</t>
+  </si>
+  <si>
+    <t>JUAN N A TEJEDOR ACEVEDO</t>
+  </si>
+  <si>
+    <t>3815334</t>
+  </si>
+  <si>
+    <t>GIL ANTONIO MONRROY SIMANCAS</t>
+  </si>
+  <si>
+    <t>73556514</t>
+  </si>
+  <si>
+    <t>SANTIAGO GUARDO ARNEDO</t>
+  </si>
+  <si>
+    <t>7884018</t>
+  </si>
+  <si>
+    <t>JOSE DE LA CRUZ CASTRO RAMIREZ</t>
+  </si>
+  <si>
+    <t>1050945974</t>
+  </si>
+  <si>
+    <t>YOVANIS RAFAEL VASQUEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1143402847</t>
+  </si>
+  <si>
+    <t>YURANIS PAOLA ESCOBAR BARCASNEGRAS</t>
+  </si>
+  <si>
+    <t>1006579007</t>
+  </si>
+  <si>
+    <t>YEFERSON DAVID PEREZ CONTRERAS</t>
+  </si>
+  <si>
     <t>1051451441</t>
   </si>
   <si>
     <t>YOSSER MANUEL BARRIOS FLOREZ</t>
   </si>
   <si>
-    <t>73556514</t>
-  </si>
-  <si>
-    <t>SANTIAGO GUARDO ARNEDO</t>
-  </si>
-  <si>
-    <t>1006579007</t>
-  </si>
-  <si>
-    <t>YEFERSON DAVID PEREZ CONTRERAS</t>
-  </si>
-  <si>
-    <t>1050945974</t>
-  </si>
-  <si>
-    <t>YOVANIS RAFAEL VASQUEZ HERNANDEZ</t>
-  </si>
-  <si>
     <t>1002243413</t>
   </si>
   <si>
     <t>LUIS ANDRES TORRES ZUÑIGA</t>
   </si>
   <si>
-    <t>7884018</t>
-  </si>
-  <si>
-    <t>JOSE DE LA CRUZ CASTRO RAMIREZ</t>
+    <t>1051446755</t>
+  </si>
+  <si>
+    <t>LEWIS VILLADIEGO VALENZUELA</t>
   </si>
   <si>
     <t>1051451234</t>
   </si>
   <si>
     <t>KEVIN JESUS PEREZ VILORIA</t>
-  </si>
-  <si>
-    <t>73231259</t>
-  </si>
-  <si>
-    <t>MILTON JOSE VILORA SALGADO</t>
-  </si>
-  <si>
-    <t>3815334</t>
-  </si>
-  <si>
-    <t>GIL ANTONIO MONRROY SIMANCAS</t>
-  </si>
-  <si>
-    <t>4028302</t>
-  </si>
-  <si>
-    <t>JUAN N A TEJEDOR ACEVEDO</t>
-  </si>
-  <si>
-    <t>1143402847</t>
-  </si>
-  <si>
-    <t>YURANIS PAOLA ESCOBAR BARCASNEGRAS</t>
-  </si>
-  <si>
-    <t>19236419</t>
-  </si>
-  <si>
-    <t>JOSE MARRUGO PAJARO</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -575,7 +581,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1094772B-AEBD-EA89-2290-91E1903647C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F424651-51E1-11F5-9FAB-3788165E9459}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,8 +932,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF540F9-16E7-49F1-86DC-BBA3DB097B0A}">
-  <dimension ref="B2:J111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10B5F4A-2D3A-4E5E-BEF1-287551DC927B}">
+  <dimension ref="B2:J118"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -951,7 +957,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -996,7 +1002,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1028,12 +1034,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4131151</v>
+        <v>4446884</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1044,14 +1050,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -1081,13 +1087,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1104,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G16" s="18">
         <v>1160000</v>
@@ -1118,13 +1124,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>46400</v>
@@ -1141,13 +1147,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
@@ -1164,13 +1170,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1187,13 +1193,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1210,13 +1216,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1233,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1256,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1279,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1302,19 +1308,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1325,19 +1331,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1348,19 +1354,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1371,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1394,19 +1400,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F29" s="18">
         <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1417,16 +1423,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G30" s="18">
         <v>1160000</v>
@@ -1440,13 +1446,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1463,13 +1469,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1486,13 +1492,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1509,13 +1515,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1532,13 +1538,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1555,13 +1561,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1584,10 +1590,10 @@
         <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G37" s="18">
         <v>1160000</v>
@@ -1601,13 +1607,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1624,13 +1630,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1647,13 +1653,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1670,13 +1676,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1693,13 +1699,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F42" s="18">
         <v>46400</v>
@@ -1722,7 +1728,7 @@
         <v>23</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
@@ -1739,16 +1745,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G44" s="18">
         <v>1160000</v>
@@ -1762,13 +1768,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
@@ -1785,13 +1791,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F46" s="18">
         <v>46400</v>
@@ -1808,13 +1814,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
@@ -1831,13 +1837,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F48" s="18">
         <v>46400</v>
@@ -1854,13 +1860,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1877,13 +1883,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -1900,16 +1906,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F51" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G51" s="18">
         <v>1160000</v>
@@ -1923,13 +1929,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
@@ -1952,7 +1958,7 @@
         <v>27</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -1969,13 +1975,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -1992,13 +1998,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2015,13 +2021,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="F56" s="18">
         <v>46400</v>
@@ -2038,13 +2044,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2061,16 +2067,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F58" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G58" s="18">
         <v>1160000</v>
@@ -2084,13 +2090,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2107,13 +2113,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
@@ -2130,13 +2136,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F61" s="18">
         <v>46400</v>
@@ -2153,13 +2159,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F62" s="18">
         <v>46400</v>
@@ -2176,13 +2182,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F63" s="18">
         <v>46400</v>
@@ -2199,13 +2205,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F64" s="18">
         <v>46400</v>
@@ -2222,16 +2228,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F65" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G65" s="18">
         <v>1160000</v>
@@ -2245,13 +2251,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F66" s="18">
         <v>46400</v>
@@ -2268,13 +2274,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2291,13 +2297,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2314,13 +2320,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
@@ -2337,13 +2343,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F70" s="18">
         <v>46400</v>
@@ -2360,13 +2366,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F71" s="18">
         <v>46400</v>
@@ -2383,16 +2389,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F72" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G72" s="18">
         <v>1160000</v>
@@ -2406,13 +2412,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F73" s="18">
         <v>46400</v>
@@ -2429,13 +2435,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F74" s="18">
         <v>46400</v>
@@ -2452,13 +2458,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F75" s="18">
         <v>46400</v>
@@ -2475,13 +2481,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F76" s="18">
         <v>46400</v>
@@ -2498,13 +2504,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F77" s="18">
         <v>46400</v>
@@ -2521,13 +2527,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F78" s="18">
         <v>46400</v>
@@ -2544,16 +2550,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F79" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G79" s="18">
         <v>1160000</v>
@@ -2567,13 +2573,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F80" s="18">
         <v>46400</v>
@@ -2590,13 +2596,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F81" s="18">
         <v>46400</v>
@@ -2613,13 +2619,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F82" s="18">
         <v>46400</v>
@@ -2636,13 +2642,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F83" s="18">
         <v>46400</v>
@@ -2659,16 +2665,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F84" s="18">
-        <v>38667</v>
+        <v>46400</v>
       </c>
       <c r="G84" s="18">
         <v>1160000</v>
@@ -2682,13 +2688,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F85" s="18">
         <v>46400</v>
@@ -2705,16 +2711,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F86" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G86" s="18">
         <v>1160000</v>
@@ -2728,13 +2734,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F87" s="18">
         <v>46400</v>
@@ -2751,13 +2757,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F88" s="18">
         <v>46400</v>
@@ -2774,13 +2780,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F89" s="18">
         <v>46400</v>
@@ -2797,13 +2803,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D90" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F90" s="18">
         <v>46400</v>
@@ -2820,13 +2826,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F91" s="18">
         <v>46400</v>
@@ -2843,13 +2849,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F92" s="18">
         <v>46400</v>
@@ -2866,16 +2872,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F93" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G93" s="18">
         <v>1160000</v>
@@ -2889,16 +2895,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F94" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G94" s="18">
         <v>1160000</v>
@@ -2912,16 +2918,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F95" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G95" s="18">
         <v>1160000</v>
@@ -2935,16 +2941,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F96" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G96" s="18">
         <v>1160000</v>
@@ -2958,16 +2964,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F97" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G97" s="18">
         <v>1160000</v>
@@ -2981,16 +2987,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F98" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G98" s="18">
         <v>1160000</v>
@@ -3004,16 +3010,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F99" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G99" s="18">
         <v>1160000</v>
@@ -3027,16 +3033,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F100" s="18">
-        <v>43307</v>
+        <v>37333</v>
       </c>
       <c r="G100" s="18">
         <v>1160000</v>
@@ -3050,16 +3056,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F101" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G101" s="18">
         <v>1160000</v>
@@ -3073,16 +3079,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F102" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G102" s="18">
         <v>1160000</v>
@@ -3096,16 +3102,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D103" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F103" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G103" s="18">
         <v>1160000</v>
@@ -3119,16 +3125,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F104" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G104" s="18">
         <v>1160000</v>
@@ -3138,56 +3144,217 @@
       <c r="J104" s="20"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D105" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E105" s="22" t="s">
+      <c r="B105" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F105" s="24">
-        <v>43307</v>
-      </c>
-      <c r="G105" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="26"/>
+      <c r="E105" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G105" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G106" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="18">
+        <v>38667</v>
+      </c>
+      <c r="G107" s="18">
+        <v>2106540</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G108" s="18">
+        <v>2106540</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G109" s="18">
+        <v>2106540</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C110" s="32"/>
-      <c r="H110" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
+      <c r="B110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G110" s="18">
+        <v>2106540</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C111" s="32"/>
-      <c r="H111" s="1" t="s">
+      <c r="B111" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G111" s="18">
+        <v>2106540</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="20"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G112" s="24">
+        <v>2106540</v>
+      </c>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" s="32"/>
+      <c r="H117" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B118" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="C118" s="32"/>
+      <c r="H118" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="H111:J111"/>
-    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="H117:J117"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9015472597.xlsx
+++ b/Data/EC/NIT-9015472597.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D322248-BCEC-4AA7-B526-46F5F6A25311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19D0B35E-03CA-4B15-8DDD-D531C85833E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{75ECCB09-46C4-4C91-82C5-8BA907851469}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{655FE155-0F67-4A28-BCE6-4FBFD18B9BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="53">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,103 +71,97 @@
     <t>LUIS ENRIQUE PUELLO MOLINARES</t>
   </si>
   <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>73231259</t>
+  </si>
+  <si>
+    <t>MILTON JOSE VILORA SALGADO</t>
+  </si>
+  <si>
+    <t>19236419</t>
+  </si>
+  <si>
+    <t>JOSE MARRUGO PAJARO</t>
+  </si>
+  <si>
+    <t>4028302</t>
+  </si>
+  <si>
+    <t>JUAN N A TEJEDOR ACEVEDO</t>
+  </si>
+  <si>
+    <t>3815334</t>
+  </si>
+  <si>
+    <t>GIL ANTONIO MONRROY SIMANCAS</t>
+  </si>
+  <si>
+    <t>73556514</t>
+  </si>
+  <si>
+    <t>SANTIAGO GUARDO ARNEDO</t>
+  </si>
+  <si>
+    <t>7884018</t>
+  </si>
+  <si>
+    <t>JOSE DE LA CRUZ CASTRO RAMIREZ</t>
+  </si>
+  <si>
+    <t>1050945974</t>
+  </si>
+  <si>
+    <t>YOVANIS RAFAEL VASQUEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1143402847</t>
+  </si>
+  <si>
+    <t>YURANIS PAOLA ESCOBAR BARCASNEGRAS</t>
+  </si>
+  <si>
+    <t>1006579007</t>
+  </si>
+  <si>
+    <t>YEFERSON DAVID PEREZ CONTRERAS</t>
+  </si>
+  <si>
+    <t>1051451441</t>
+  </si>
+  <si>
+    <t>YOSSER MANUEL BARRIOS FLOREZ</t>
+  </si>
+  <si>
+    <t>1002243413</t>
+  </si>
+  <si>
+    <t>LUIS ANDRES TORRES ZUÑIGA</t>
+  </si>
+  <si>
+    <t>1051451234</t>
+  </si>
+  <si>
+    <t>KEVIN JESUS PEREZ VILORIA</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
     <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>73231259</t>
-  </si>
-  <si>
-    <t>MILTON JOSE VILORA SALGADO</t>
-  </si>
-  <si>
-    <t>19236419</t>
-  </si>
-  <si>
-    <t>JOSE MARRUGO PAJARO</t>
-  </si>
-  <si>
-    <t>4028302</t>
-  </si>
-  <si>
-    <t>JUAN N A TEJEDOR ACEVEDO</t>
-  </si>
-  <si>
-    <t>3815334</t>
-  </si>
-  <si>
-    <t>GIL ANTONIO MONRROY SIMANCAS</t>
-  </si>
-  <si>
-    <t>73556514</t>
-  </si>
-  <si>
-    <t>SANTIAGO GUARDO ARNEDO</t>
-  </si>
-  <si>
-    <t>7884018</t>
-  </si>
-  <si>
-    <t>JOSE DE LA CRUZ CASTRO RAMIREZ</t>
-  </si>
-  <si>
-    <t>1050945974</t>
-  </si>
-  <si>
-    <t>YOVANIS RAFAEL VASQUEZ HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1143402847</t>
-  </si>
-  <si>
-    <t>YURANIS PAOLA ESCOBAR BARCASNEGRAS</t>
-  </si>
-  <si>
-    <t>1006579007</t>
-  </si>
-  <si>
-    <t>YEFERSON DAVID PEREZ CONTRERAS</t>
-  </si>
-  <si>
-    <t>1051451441</t>
-  </si>
-  <si>
-    <t>YOSSER MANUEL BARRIOS FLOREZ</t>
-  </si>
-  <si>
-    <t>1002243413</t>
-  </si>
-  <si>
-    <t>LUIS ANDRES TORRES ZUÑIGA</t>
-  </si>
-  <si>
-    <t>1051446755</t>
-  </si>
-  <si>
-    <t>LEWIS VILLADIEGO VALENZUELA</t>
-  </si>
-  <si>
-    <t>1051451234</t>
-  </si>
-  <si>
-    <t>KEVIN JESUS PEREZ VILORIA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -266,7 +260,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -279,9 +275,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -481,23 +475,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,10 +519,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,7 +575,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F424651-51E1-11F5-9FAB-3788165E9459}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E79AE6D2-6A92-0244-BA70-24AFC4E8BA27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,8 +926,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10B5F4A-2D3A-4E5E-BEF1-287551DC927B}">
-  <dimension ref="B2:J118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623C47AC-CECC-4254-8FBD-6BE210B389FB}">
+  <dimension ref="B2:J111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -957,7 +951,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1002,7 +996,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1034,12 +1028,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4446884</v>
+        <v>4131151</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1050,14 +1044,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -1087,13 +1081,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1110,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
         <v>1160000</v>
@@ -1124,13 +1118,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>46400</v>
@@ -1147,13 +1141,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
@@ -1170,13 +1164,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1193,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1216,13 +1210,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1239,13 +1233,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1262,19 +1256,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1285,19 +1279,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1308,19 +1302,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1331,19 +1325,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1354,19 +1348,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1377,19 +1371,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1400,19 +1394,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1423,16 +1417,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F30" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
         <v>1160000</v>
@@ -1446,13 +1440,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1469,13 +1463,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1492,13 +1486,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1521,7 +1515,7 @@
         <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1538,13 +1532,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1561,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1584,16 +1578,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G37" s="18">
         <v>1160000</v>
@@ -1607,13 +1601,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1630,13 +1624,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1653,13 +1647,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1676,13 +1670,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1699,13 +1693,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>46400</v>
@@ -1722,13 +1716,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
@@ -1745,16 +1739,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F44" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G44" s="18">
         <v>1160000</v>
@@ -1768,13 +1762,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
@@ -1791,13 +1785,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F46" s="18">
         <v>46400</v>
@@ -1814,13 +1808,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
@@ -1837,13 +1831,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F48" s="18">
         <v>46400</v>
@@ -1866,7 +1860,7 @@
         <v>25</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1883,13 +1877,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -1906,16 +1900,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F51" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G51" s="18">
         <v>1160000</v>
@@ -1929,13 +1923,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
@@ -1952,13 +1946,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -1975,13 +1969,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -1998,13 +1992,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2021,13 +2015,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F56" s="18">
         <v>46400</v>
@@ -2044,13 +2038,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2067,16 +2061,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F58" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G58" s="18">
         <v>1160000</v>
@@ -2090,13 +2084,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2113,13 +2107,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
@@ -2136,13 +2130,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F61" s="18">
         <v>46400</v>
@@ -2159,13 +2153,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F62" s="18">
         <v>46400</v>
@@ -2182,13 +2176,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F63" s="18">
         <v>46400</v>
@@ -2211,7 +2205,7 @@
         <v>29</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F64" s="18">
         <v>46400</v>
@@ -2234,10 +2228,10 @@
         <v>31</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F65" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G65" s="18">
         <v>1160000</v>
@@ -2251,13 +2245,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
         <v>46400</v>
@@ -2274,13 +2268,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2297,13 +2291,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2320,13 +2314,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
@@ -2343,13 +2337,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F70" s="18">
         <v>46400</v>
@@ -2366,13 +2360,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F71" s="18">
         <v>46400</v>
@@ -2389,16 +2383,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F72" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G72" s="18">
         <v>1160000</v>
@@ -2412,13 +2406,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F73" s="18">
         <v>46400</v>
@@ -2435,13 +2429,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F74" s="18">
         <v>46400</v>
@@ -2458,13 +2452,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F75" s="18">
         <v>46400</v>
@@ -2481,13 +2475,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F76" s="18">
         <v>46400</v>
@@ -2504,13 +2498,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F77" s="18">
         <v>46400</v>
@@ -2527,13 +2521,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F78" s="18">
         <v>46400</v>
@@ -2550,16 +2544,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F79" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G79" s="18">
         <v>1160000</v>
@@ -2579,7 +2573,7 @@
         <v>35</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F80" s="18">
         <v>46400</v>
@@ -2596,13 +2590,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F81" s="18">
         <v>46400</v>
@@ -2619,13 +2613,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F82" s="18">
         <v>46400</v>
@@ -2642,13 +2636,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F83" s="18">
         <v>46400</v>
@@ -2665,13 +2659,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F84" s="18">
         <v>46400</v>
@@ -2688,13 +2682,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F85" s="18">
         <v>46400</v>
@@ -2711,16 +2705,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F86" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G86" s="18">
         <v>1160000</v>
@@ -2734,13 +2728,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F87" s="18">
         <v>46400</v>
@@ -2757,13 +2751,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F88" s="18">
         <v>46400</v>
@@ -2780,13 +2774,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F89" s="18">
         <v>46400</v>
@@ -2803,13 +2797,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F90" s="18">
         <v>46400</v>
@@ -2826,13 +2820,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F91" s="18">
         <v>46400</v>
@@ -2849,13 +2843,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F92" s="18">
         <v>46400</v>
@@ -2872,16 +2866,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F93" s="18">
-        <v>43307</v>
+        <v>38667</v>
       </c>
       <c r="G93" s="18">
         <v>1160000</v>
@@ -2895,16 +2889,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F94" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G94" s="18">
         <v>1160000</v>
@@ -2918,16 +2912,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F95" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G95" s="18">
         <v>1160000</v>
@@ -2941,16 +2935,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F96" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G96" s="18">
         <v>1160000</v>
@@ -2964,16 +2958,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F97" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G97" s="18">
         <v>1160000</v>
@@ -2987,16 +2981,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F98" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G98" s="18">
         <v>1160000</v>
@@ -3010,16 +3004,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F99" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G99" s="18">
         <v>1160000</v>
@@ -3033,16 +3027,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D100" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E100" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F100" s="18">
-        <v>37333</v>
+        <v>43307</v>
       </c>
       <c r="G100" s="18">
         <v>1160000</v>
@@ -3056,16 +3050,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D101" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E101" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F101" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G101" s="18">
         <v>1160000</v>
@@ -3079,16 +3073,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D102" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E102" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F102" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G102" s="18">
         <v>1160000</v>
@@ -3102,16 +3096,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D103" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E103" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F103" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G103" s="18">
         <v>1160000</v>
@@ -3125,16 +3119,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D104" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E104" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F104" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G104" s="18">
         <v>1160000</v>
@@ -3144,217 +3138,56 @@
       <c r="J104" s="20"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D105" s="17" t="s">
+      <c r="B105" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E105" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F105" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G105" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G106" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="18">
-        <v>38667</v>
-      </c>
-      <c r="G107" s="18">
-        <v>2106540</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G108" s="18">
-        <v>2106540</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G109" s="18">
-        <v>2106540</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="F105" s="24">
+        <v>43307</v>
+      </c>
+      <c r="G105" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="26"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G110" s="18">
-        <v>2106540</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="B110" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110" s="32"/>
+      <c r="H110" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F111" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G111" s="18">
-        <v>2106540</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D112" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F112" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G112" s="24">
-        <v>2106540</v>
-      </c>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C117" s="32"/>
-      <c r="H117" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="32" t="s">
+      <c r="B111" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111" s="32"/>
+      <c r="H111" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C118" s="32"/>
-      <c r="H118" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="H118:J118"/>
-    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="H110:J110"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
